--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,44 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRANJAL</t>
+          <t>ROHAN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>05/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:20:25</t>
+          <t>10:51:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROHAN</t>
+          <t>PRANJAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>05/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:20:33</t>
+          <t>10:52:00</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>05/07/2024</t>
+          <t>15/07/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13:20:37</t>
+          <t>10:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SHRUTI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15/07/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11:13:10</t>
         </is>
       </c>
     </row>
